--- a/data/trans_orig/P36B08_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EFE488A-C4E6-4F7F-8F8F-6133E693BA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00BAE171-47CB-45C9-8C09-1AA0DB4080B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41062C1E-4BFC-46E8-B63B-20BF261B5381}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E534024A-D70E-4BF9-89EE-C8D6E088B786}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="641">
   <si>
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -80,25 +80,25 @@
     <t>55,11%</t>
   </si>
   <si>
-    <t>66,74%</t>
+    <t>67,08%</t>
   </si>
   <si>
     <t>71,29%</t>
   </si>
   <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
   </si>
   <si>
     <t>66,22%</t>
   </si>
   <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>38,63%</t>
   </si>
   <si>
-    <t>33,26%</t>
+    <t>32,92%</t>
   </si>
   <si>
     <t>44,89%</t>
@@ -116,19 +116,19 @@
     <t>28,71%</t>
   </si>
   <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
   </si>
   <si>
     <t>33,78%</t>
   </si>
   <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>45,55%</t>
   </si>
   <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
   </si>
   <si>
     <t>57,63%</t>
   </si>
   <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
   </si>
   <si>
     <t>51,66%</t>
   </si>
   <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
   </si>
   <si>
     <t>54,45%</t>
   </si>
   <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
   </si>
   <si>
     <t>42,37%</t>
   </si>
   <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
   </si>
   <si>
     <t>48,34%</t>
   </si>
   <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>72,62%</t>
   </si>
   <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
   </si>
   <si>
     <t>77,14%</t>
   </si>
   <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
   </si>
   <si>
     <t>74,94%</t>
   </si>
   <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
   </si>
   <si>
     <t>27,38%</t>
   </si>
   <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
   </si>
   <si>
     <t>22,86%</t>
   </si>
   <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
   </si>
   <si>
     <t>25,06%</t>
   </si>
   <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,55 +254,55 @@
     <t>68,61%</t>
   </si>
   <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
   </si>
   <si>
     <t>77,68%</t>
   </si>
   <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>73,22%</t>
   </si>
   <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
   </si>
   <si>
     <t>31,39%</t>
   </si>
   <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
   </si>
   <si>
     <t>26,78%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -311,55 +311,55 @@
     <t>50,92%</t>
   </si>
   <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
   </si>
   <si>
     <t>62,6%</t>
   </si>
   <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
   </si>
   <si>
     <t>56,82%</t>
   </si>
   <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
   </si>
   <si>
     <t>49,08%</t>
   </si>
   <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
   </si>
   <si>
     <t>37,4%</t>
   </si>
   <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
   </si>
   <si>
     <t>43,18%</t>
   </si>
   <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -368,55 +368,55 @@
     <t>64,52%</t>
   </si>
   <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
   </si>
   <si>
     <t>76,31%</t>
   </si>
   <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
   </si>
   <si>
     <t>70,5%</t>
   </si>
   <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
   </si>
   <si>
     <t>35,48%</t>
   </si>
   <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
   </si>
   <si>
     <t>23,69%</t>
   </si>
   <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
   </si>
   <si>
     <t>29,5%</t>
   </si>
   <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -425,1171 +425,1153 @@
     <t>75,63%</t>
   </si>
   <si>
-    <t>72,06%</t>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
   </si>
   <si>
     <t>78,98%</t>
   </si>
   <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
   </si>
   <si>
     <t>21,02%</t>
   </si>
   <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>89,43%</t>
   </si>
   <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>10,57%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
   </si>
   <si>
     <t>6,78%</t>
@@ -2391,7 +2373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAECA7D5-63D4-415C-9347-FC453545299E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE4BED9-F842-4EAE-9573-91BB16694823}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3788,10 +3770,10 @@
         <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,16 +3785,16 @@
         <v>1183</v>
       </c>
       <c r="D29" s="7">
-        <v>1204579</v>
+        <v>1204578</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>964</v>
@@ -3821,13 +3803,13 @@
         <v>976567</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>2147</v>
@@ -3836,13 +3818,13 @@
         <v>2181145</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,7 +3836,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275710</v>
+        <v>3275709</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3898,7 +3880,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3922,7 +3904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D948F233-1879-4B12-8534-1B3F0E63E3FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A936C65F-93C9-40BE-8CB3-B9A86B3BCB62}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3939,7 +3921,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4044,39 +4026,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,39 +4071,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,39 +4116,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4165,13 @@
         <v>283820</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>320</v>
@@ -4198,13 +4180,13 @@
         <v>353143</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>581</v>
@@ -4213,13 +4195,13 @@
         <v>636963</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4216,13 @@
         <v>221707</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>160</v>
@@ -4249,13 +4231,13 @@
         <v>170622</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>371</v>
@@ -4264,13 +4246,13 @@
         <v>392329</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4320,13 @@
         <v>258496</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>273</v>
@@ -4353,13 +4335,13 @@
         <v>292980</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>526</v>
@@ -4368,13 +4350,13 @@
         <v>551476</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4371,13 @@
         <v>64522</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -4404,13 +4386,13 @@
         <v>48040</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>109</v>
@@ -4419,13 +4401,13 @@
         <v>112562</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4475,13 @@
         <v>503362</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>516</v>
@@ -4508,13 +4490,13 @@
         <v>557875</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>987</v>
@@ -4523,13 +4505,13 @@
         <v>1061237</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,13 +4526,13 @@
         <v>165358</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>109</v>
@@ -4559,13 +4541,13 @@
         <v>116277</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>264</v>
@@ -4574,13 +4556,13 @@
         <v>281635</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4630,13 @@
         <v>136185</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>157</v>
@@ -4663,13 +4645,13 @@
         <v>160717</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>282</v>
@@ -4678,13 +4660,13 @@
         <v>296902</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4681,13 @@
         <v>76433</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -4714,13 +4696,13 @@
         <v>58874</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -4729,13 +4711,13 @@
         <v>135307</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4785,13 @@
         <v>198498</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H19" s="7">
         <v>223</v>
@@ -4818,13 +4800,13 @@
         <v>231718</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M19" s="7">
         <v>410</v>
@@ -4833,13 +4815,13 @@
         <v>430216</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4836,13 @@
         <v>75483</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -5411,7 +5393,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5435,7 +5417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10F443C-C7A4-4EF2-913C-B22984147FE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7A5625-2C0F-4C10-8102-9003DAE37501}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5571,7 +5553,7 @@
         <v>234</v>
       </c>
       <c r="I4" s="7">
-        <v>245124</v>
+        <v>245125</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>329</v>
@@ -5673,7 +5655,7 @@
         <v>275</v>
       </c>
       <c r="I6" s="7">
-        <v>286716</v>
+        <v>286717</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6525,7 +6507,7 @@
         <v>441</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>442</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6540,13 +6522,13 @@
         <v>237530</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H23" s="7">
         <v>182</v>
@@ -6555,13 +6537,13 @@
         <v>191603</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M23" s="7">
         <v>389</v>
@@ -6570,13 +6552,13 @@
         <v>429133</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,13 +6626,13 @@
         <v>591618</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>453</v>
+        <v>76</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>454</v>
+        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>567</v>
@@ -6659,13 +6641,13 @@
         <v>627141</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M25" s="7">
         <v>1136</v>
@@ -6674,13 +6656,13 @@
         <v>1218760</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>460</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,13 +6677,13 @@
         <v>182807</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>462</v>
+        <v>287</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>463</v>
+        <v>85</v>
       </c>
       <c r="H26" s="7">
         <v>185</v>
@@ -6710,13 +6692,13 @@
         <v>196160</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="M26" s="7">
         <v>362</v>
@@ -6725,13 +6707,13 @@
         <v>378966</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>468</v>
+        <v>269</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,13 +6781,13 @@
         <v>2441609</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="H28" s="7">
         <v>2557</v>
@@ -6814,13 +6796,13 @@
         <v>2730794</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="M28" s="7">
         <v>4891</v>
@@ -6829,13 +6811,13 @@
         <v>5172404</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,13 +6832,13 @@
         <v>935563</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="H29" s="7">
         <v>765</v>
@@ -6865,13 +6847,13 @@
         <v>796990</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="M29" s="7">
         <v>1647</v>
@@ -6880,13 +6862,13 @@
         <v>1732552</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6942,7 +6924,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6966,7 +6948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5196554D-E78B-4B89-B91F-F4B8EEA08164}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1A011-0FF8-4B68-A0D4-C3117EF14D4E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6983,7 +6965,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7090,13 +7072,13 @@
         <v>243505</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="H4" s="7">
         <v>522</v>
@@ -7105,13 +7087,13 @@
         <v>260958</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="M4" s="7">
         <v>833</v>
@@ -7120,13 +7102,13 @@
         <v>504462</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,13 +7123,13 @@
         <v>16793</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -7156,13 +7138,13 @@
         <v>10445</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -7171,13 +7153,13 @@
         <v>27238</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7245,13 +7227,13 @@
         <v>481309</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>206</v>
+        <v>500</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="H7" s="7">
         <v>668</v>
@@ -7260,13 +7242,13 @@
         <v>516944</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="M7" s="7">
         <v>1022</v>
@@ -7275,13 +7257,13 @@
         <v>998254</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7296,13 +7278,13 @@
         <v>37988</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>214</v>
+        <v>510</v>
       </c>
       <c r="H8" s="7">
         <v>49</v>
@@ -7311,13 +7293,13 @@
         <v>37622</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
@@ -7326,13 +7308,13 @@
         <v>75610</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,13 +7382,13 @@
         <v>294439</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H10" s="7">
         <v>505</v>
@@ -7415,13 +7397,13 @@
         <v>350490</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="M10" s="7">
         <v>838</v>
@@ -7430,13 +7412,13 @@
         <v>644930</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,13 +7433,13 @@
         <v>27801</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -7466,13 +7448,13 @@
         <v>20583</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -7481,13 +7463,13 @@
         <v>48384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,13 +7537,13 @@
         <v>315653</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H13" s="7">
         <v>588</v>
@@ -7570,13 +7552,13 @@
         <v>420426</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="M13" s="7">
         <v>874</v>
@@ -7585,13 +7567,13 @@
         <v>736079</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7606,13 +7588,13 @@
         <v>5803</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -7621,13 +7603,13 @@
         <v>8130</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -7636,13 +7618,13 @@
         <v>13933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7710,13 +7692,13 @@
         <v>196174</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H16" s="7">
         <v>487</v>
@@ -7725,13 +7707,13 @@
         <v>229414</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="M16" s="7">
         <v>765</v>
@@ -7740,13 +7722,13 @@
         <v>425587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7761,13 +7743,13 @@
         <v>574</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -7776,13 +7758,13 @@
         <v>1753</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -7791,13 +7773,13 @@
         <v>2327</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7865,13 +7847,13 @@
         <v>268447</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="H19" s="7">
         <v>452</v>
@@ -7880,13 +7862,13 @@
         <v>269601</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="M19" s="7">
         <v>812</v>
@@ -7895,13 +7877,13 @@
         <v>538049</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7916,13 +7898,13 @@
         <v>8776</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -7931,13 +7913,13 @@
         <v>6021</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -7946,13 +7928,13 @@
         <v>14796</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8020,13 +8002,13 @@
         <v>549524</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="H22" s="7">
         <v>893</v>
@@ -8035,13 +8017,13 @@
         <v>746165</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="M22" s="7">
         <v>1424</v>
@@ -8050,13 +8032,13 @@
         <v>1295689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8071,13 +8053,13 @@
         <v>76134</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H23" s="7">
         <v>67</v>
@@ -8086,13 +8068,13 @@
         <v>58038</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="M23" s="7">
         <v>132</v>
@@ -8101,13 +8083,13 @@
         <v>134172</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8175,13 +8157,13 @@
         <v>839189</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="H25" s="7">
         <v>1042</v>
@@ -8190,13 +8172,13 @@
         <v>848978</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="M25" s="7">
         <v>1788</v>
@@ -8205,13 +8187,13 @@
         <v>1688167</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8226,13 +8208,13 @@
         <v>19425</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -8241,13 +8223,13 @@
         <v>17502</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="M26" s="7">
         <v>33</v>
@@ -8256,13 +8238,13 @@
         <v>36927</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8330,13 +8312,13 @@
         <v>3188241</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="H28" s="7">
         <v>5157</v>
@@ -8345,13 +8327,13 @@
         <v>3642976</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="M28" s="7">
         <v>8356</v>
@@ -8360,13 +8342,13 @@
         <v>6831217</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8381,13 +8363,13 @@
         <v>193293</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="H29" s="7">
         <v>199</v>
@@ -8396,13 +8378,13 @@
         <v>160094</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
@@ -8411,13 +8393,13 @@
         <v>353387</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8473,7 +8455,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B08_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00BAE171-47CB-45C9-8C09-1AA0DB4080B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80E3C057-8677-4B8B-9382-B22DA7097B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E534024A-D70E-4BF9-89EE-C8D6E088B786}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A9611A69-356A-452C-90ED-8A3283CEE4CB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>61,37%</t>
   </si>
   <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
   </si>
   <si>
     <t>71,29%</t>
   </si>
   <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
   </si>
   <si>
     <t>66,22%</t>
   </si>
   <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>38,63%</t>
   </si>
   <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
   </si>
   <si>
     <t>28,71%</t>
   </si>
   <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
   </si>
   <si>
     <t>33,78%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>45,55%</t>
   </si>
   <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
   </si>
   <si>
     <t>57,63%</t>
   </si>
   <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
   </si>
   <si>
     <t>51,66%</t>
   </si>
   <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>54,45%</t>
   </si>
   <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
   </si>
   <si>
     <t>42,37%</t>
   </si>
   <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
   </si>
   <si>
     <t>48,34%</t>
   </si>
   <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,814 +197,814 @@
     <t>72,62%</t>
   </si>
   <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
   </si>
   <si>
     <t>77,14%</t>
   </si>
   <si>
-    <t>72,84%</t>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
   </si>
   <si>
     <t>81,64%</t>
   </si>
   <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
   </si>
   <si>
     <t>18,36%</t>
   </si>
   <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
   </si>
   <si>
     <t>81,26%</t>
   </si>
   <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
+    <t>23,3%</t>
   </si>
   <si>
     <t>64,05%</t>
   </si>
   <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
   </si>
   <si>
     <t>73,19%</t>
   </si>
   <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
   </si>
   <si>
     <t>68,69%</t>
   </si>
   <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
   </si>
   <si>
     <t>35,95%</t>
   </si>
   <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
   </si>
   <si>
     <t>26,81%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>31,31%</t>
   </si>
   <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
   </si>
   <si>
     <t>72,45%</t>
   </si>
   <si>
-    <t>77,59%</t>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
   </si>
   <si>
     <t>83,32%</t>
   </si>
   <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
   </si>
   <si>
     <t>77,93%</t>
   </si>
   <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
   </si>
   <si>
     <t>27,55%</t>
   </si>
   <si>
-    <t>22,41%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
   </si>
   <si>
     <t>22,07%</t>
   </si>
   <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
   </si>
   <si>
     <t>82,33%</t>
   </si>
   <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
   </si>
   <si>
     <t>78,3%</t>
   </si>
   <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
   </si>
   <si>
     <t>21,7%</t>
   </si>
   <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
   </si>
   <si>
     <t>72,71%</t>
   </si>
   <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>80,13%</t>
   </si>
   <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
   </si>
   <si>
     <t>76,52%</t>
   </si>
   <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
   </si>
   <si>
     <t>19,87%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
   </si>
   <si>
     <t>23,48%</t>
   </si>
   <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
   </si>
   <si>
     <t>79,56%</t>
   </si>
   <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
   </si>
   <si>
     <t>75,43%</t>
   </si>
   <si>
-    <t>74,23%</t>
+    <t>74,4%</t>
   </si>
   <si>
     <t>76,46%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>24,57%</t>
@@ -1013,7 +1013,7 @@
     <t>23,54%</t>
   </si>
   <si>
-    <t>25,77%</t>
+    <t>25,6%</t>
   </si>
   <si>
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
@@ -1022,463 +1022,475 @@
     <t>80,48%</t>
   </si>
   <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
   </si>
   <si>
     <t>85,49%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
   </si>
   <si>
     <t>82,96%</t>
   </si>
   <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
   </si>
   <si>
     <t>19,52%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>68,42%</t>
   </si>
   <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
+    <t>64,15%</t>
   </si>
   <si>
     <t>78,59%</t>
   </si>
   <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
   </si>
   <si>
     <t>73,62%</t>
   </si>
   <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
   </si>
   <si>
     <t>31,58%</t>
   </si>
   <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>35,85%</t>
   </si>
   <si>
     <t>21,41%</t>
   </si>
   <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
   </si>
   <si>
     <t>26,38%</t>
   </si>
   <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
   </si>
   <si>
     <t>72,95%</t>
   </si>
   <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
   </si>
   <si>
     <t>78,05%</t>
   </si>
   <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
   </si>
   <si>
     <t>75,57%</t>
   </si>
   <si>
-    <t>72,09%</t>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
   </si>
   <si>
     <t>78,75%</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
   </si>
   <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
+    <t>24,14%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
   </si>
   <si>
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2023 (Tasa respuesta: 99,82%)</t>
@@ -1487,481 +1499,469 @@
     <t>93,55%</t>
   </si>
   <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
   </si>
   <si>
     <t>96,15%</t>
   </si>
   <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>94,88%</t>
   </si>
   <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
   </si>
   <si>
     <t>6,45%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>92,68%</t>
   </si>
   <si>
-    <t>89,43%</t>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>97,86%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
   </si>
   <si>
     <t>94,28%</t>
   </si>
   <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>95,08%</t>
   </si>
   <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>95,62%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
+    <t>4,38%</t>
   </si>
 </sst>
 </file>
@@ -2373,7 +2373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE4BED9-F842-4EAE-9573-91BB16694823}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C94604-4CD4-43CC-ABBD-533F7A2EDB03}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3904,7 +3904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A936C65F-93C9-40BE-8CB3-B9A86B3BCB62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5190A9-1285-4D54-8B94-F38D7CE162F7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4186,7 +4186,7 @@
         <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>581</v>
@@ -4195,13 +4195,13 @@
         <v>636963</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4216,13 @@
         <v>221707</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>160</v>
@@ -4231,13 +4231,13 @@
         <v>170622</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>371</v>
@@ -4246,13 +4246,13 @@
         <v>392329</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4320,13 @@
         <v>258496</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>273</v>
@@ -4335,13 +4335,13 @@
         <v>292980</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>526</v>
@@ -4350,13 +4350,13 @@
         <v>551476</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4371,13 @@
         <v>64522</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -4386,13 +4386,13 @@
         <v>48040</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>109</v>
@@ -4401,13 +4401,13 @@
         <v>112562</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4475,13 @@
         <v>503362</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>516</v>
@@ -4490,13 +4490,13 @@
         <v>557875</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>987</v>
@@ -4505,13 +4505,13 @@
         <v>1061237</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4526,13 @@
         <v>165358</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>109</v>
@@ -4541,13 +4541,13 @@
         <v>116277</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>264</v>
@@ -4556,13 +4556,13 @@
         <v>281635</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4630,13 @@
         <v>136185</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>157</v>
@@ -4645,13 +4645,13 @@
         <v>160717</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>282</v>
@@ -4660,13 +4660,13 @@
         <v>296902</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4681,13 @@
         <v>76433</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -4696,13 +4696,13 @@
         <v>58874</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -4711,13 +4711,13 @@
         <v>135307</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4785,13 @@
         <v>198498</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H19" s="7">
         <v>223</v>
@@ -4800,13 +4800,13 @@
         <v>231718</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M19" s="7">
         <v>410</v>
@@ -4815,13 +4815,13 @@
         <v>430216</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4836,13 @@
         <v>75483</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -5417,7 +5417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7A5625-2C0F-4C10-8102-9003DAE37501}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37352755-7610-488A-98E3-3FBE8E433260}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5702,7 +5702,7 @@
         <v>345</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>51</v>
       </c>
       <c r="H7" s="7">
         <v>375</v>
@@ -5711,13 +5711,13 @@
         <v>409182</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>694</v>
@@ -5726,13 +5726,13 @@
         <v>749675</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5747,13 @@
         <v>157123</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H8" s="7">
         <v>107</v>
@@ -5762,13 +5762,13 @@
         <v>111466</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>259</v>
@@ -5777,13 +5777,13 @@
         <v>268589</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5851,13 @@
         <v>231713</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>258</v>
@@ -5866,13 +5866,13 @@
         <v>262478</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>503</v>
@@ -5881,13 +5881,13 @@
         <v>494190</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,13 +5902,13 @@
         <v>85930</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H11" s="7">
         <v>74</v>
@@ -5917,13 +5917,13 @@
         <v>73831</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>163</v>
@@ -5932,13 +5932,13 @@
         <v>159762</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,13 +6006,13 @@
         <v>296731</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H13" s="7">
         <v>310</v>
@@ -6021,13 +6021,13 @@
         <v>335773</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>595</v>
@@ -6036,13 +6036,13 @@
         <v>632504</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,13 +6057,13 @@
         <v>73233</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -6072,13 +6072,13 @@
         <v>50552</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>116</v>
@@ -6087,13 +6087,13 @@
         <v>123785</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6161,13 +6161,13 @@
         <v>190309</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>199</v>
@@ -6176,13 +6176,13 @@
         <v>195681</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>391</v>
@@ -6191,13 +6191,13 @@
         <v>385990</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,13 +6212,13 @@
         <v>20912</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -6227,13 +6227,13 @@
         <v>22906</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -6242,13 +6242,13 @@
         <v>43818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,13 +6316,13 @@
         <v>141235</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>157</v>
@@ -6331,13 +6331,13 @@
         <v>163142</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>296</v>
@@ -6346,13 +6346,13 @@
         <v>304377</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,13 +6367,13 @@
         <v>120877</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>105</v>
@@ -6382,13 +6382,13 @@
         <v>108880</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>224</v>
@@ -6397,13 +6397,13 @@
         <v>229757</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,13 +6471,13 @@
         <v>413842</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>457</v>
@@ -6486,13 +6486,13 @@
         <v>492273</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>826</v>
@@ -6501,13 +6501,13 @@
         <v>906115</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>241</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,13 +6522,13 @@
         <v>237530</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H23" s="7">
         <v>182</v>
@@ -6537,13 +6537,13 @@
         <v>191603</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>389</v>
@@ -6552,13 +6552,13 @@
         <v>429133</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>249</v>
+        <v>446</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,13 +6626,13 @@
         <v>591618</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>567</v>
@@ -6662,7 +6662,7 @@
         <v>455</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>260</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,13 +6677,13 @@
         <v>182807</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>287</v>
+        <v>458</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>85</v>
+        <v>459</v>
       </c>
       <c r="H26" s="7">
         <v>185</v>
@@ -6692,13 +6692,13 @@
         <v>196160</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>362</v>
@@ -6707,13 +6707,13 @@
         <v>378966</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,13 +6781,13 @@
         <v>2441609</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H28" s="7">
         <v>2557</v>
@@ -6796,13 +6796,13 @@
         <v>2730794</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M28" s="7">
         <v>4891</v>
@@ -6811,13 +6811,13 @@
         <v>5172404</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,13 +6832,13 @@
         <v>935563</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H29" s="7">
         <v>765</v>
@@ -6847,13 +6847,13 @@
         <v>796990</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="M29" s="7">
         <v>1647</v>
@@ -6862,13 +6862,13 @@
         <v>1732552</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6948,7 +6948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1A011-0FF8-4B68-A0D4-C3117EF14D4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDB06F8-B96B-455C-87A1-FE803AEE6009}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6965,7 +6965,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7072,13 +7072,13 @@
         <v>243505</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H4" s="7">
         <v>522</v>
@@ -7087,13 +7087,13 @@
         <v>260958</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="M4" s="7">
         <v>833</v>
@@ -7102,13 +7102,13 @@
         <v>504462</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,13 +7123,13 @@
         <v>16793</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -7138,13 +7138,13 @@
         <v>10445</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -7153,13 +7153,13 @@
         <v>27238</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,13 +7227,13 @@
         <v>481309</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="H7" s="7">
         <v>668</v>
@@ -7242,13 +7242,13 @@
         <v>516944</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="M7" s="7">
         <v>1022</v>
@@ -7257,13 +7257,13 @@
         <v>998254</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,13 +7278,13 @@
         <v>37988</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H8" s="7">
         <v>49</v>
@@ -7293,13 +7293,13 @@
         <v>37622</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
@@ -7308,13 +7308,13 @@
         <v>75610</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,28 +7382,28 @@
         <v>294439</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H10" s="7">
         <v>505</v>
       </c>
       <c r="I10" s="7">
-        <v>350490</v>
+        <v>350491</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="M10" s="7">
         <v>838</v>
@@ -7412,13 +7412,13 @@
         <v>644930</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,13 +7433,13 @@
         <v>27801</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -7448,13 +7448,13 @@
         <v>20583</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -7463,13 +7463,13 @@
         <v>48384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7496,7 +7496,7 @@
         <v>532</v>
       </c>
       <c r="I12" s="7">
-        <v>371073</v>
+        <v>371074</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7537,13 +7537,13 @@
         <v>315653</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H13" s="7">
         <v>588</v>
@@ -7552,13 +7552,13 @@
         <v>420426</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M13" s="7">
         <v>874</v>
@@ -7567,13 +7567,13 @@
         <v>736079</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,13 +7588,13 @@
         <v>5803</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -7603,13 +7603,13 @@
         <v>8130</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -7618,13 +7618,13 @@
         <v>13933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7692,13 +7692,13 @@
         <v>196174</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H16" s="7">
         <v>487</v>
@@ -7707,13 +7707,13 @@
         <v>229414</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M16" s="7">
         <v>765</v>
@@ -7722,13 +7722,13 @@
         <v>425587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7743,13 +7743,13 @@
         <v>574</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -7758,13 +7758,13 @@
         <v>1753</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -7773,13 +7773,13 @@
         <v>2327</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,13 +7847,13 @@
         <v>268447</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="H19" s="7">
         <v>452</v>
@@ -7862,13 +7862,13 @@
         <v>269601</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M19" s="7">
         <v>812</v>
@@ -7877,13 +7877,13 @@
         <v>538049</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,10 +7898,10 @@
         <v>8776</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>582</v>
@@ -8187,13 +8187,13 @@
         <v>1688167</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>557</v>
+        <v>613</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8208,13 +8208,13 @@
         <v>19425</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -8223,13 +8223,13 @@
         <v>17502</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M26" s="7">
         <v>33</v>
@@ -8238,13 +8238,13 @@
         <v>36927</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>567</v>
+        <v>622</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8312,13 +8312,13 @@
         <v>3188241</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H28" s="7">
         <v>5157</v>
@@ -8327,13 +8327,13 @@
         <v>3642976</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="M28" s="7">
         <v>8356</v>
@@ -8342,13 +8342,13 @@
         <v>6831217</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>630</v>
+        <v>511</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8363,13 +8363,13 @@
         <v>193293</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H29" s="7">
         <v>199</v>
@@ -8378,13 +8378,13 @@
         <v>160094</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
@@ -8393,13 +8393,13 @@
         <v>353387</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>640</v>
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B08_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80E3C057-8677-4B8B-9382-B22DA7097B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{864266B5-DCEC-4641-B5F0-479F9AEBAB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A9611A69-356A-452C-90ED-8A3283CEE4CB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3C992A52-0820-4BCD-A145-5BE52EAE914F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="646">
   <si>
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -593,7 +593,52 @@
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
   </si>
   <si>
     <t>56,14%</t>
@@ -698,58 +743,58 @@
     <t>20,07%</t>
   </si>
   <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
   </si>
   <si>
     <t>64,05%</t>
@@ -1091,9 +1136,6 @@
     <t>73,62%</t>
   </si>
   <si>
-    <t>71,02%</t>
-  </si>
-  <si>
     <t>76,5%</t>
   </si>
   <si>
@@ -1118,9 +1160,6 @@
     <t>23,5%</t>
   </si>
   <si>
-    <t>28,98%</t>
-  </si>
-  <si>
     <t>72,95%</t>
   </si>
   <si>
@@ -1496,472 +1535,448 @@
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
   </si>
   <si>
     <t>93,02%</t>
   </si>
   <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>95,08%</t>
   </si>
   <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>4,38%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
   </si>
 </sst>
 </file>
@@ -2373,7 +2388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C94604-4CD4-43CC-ABBD-533F7A2EDB03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D925BC-E3A7-4B02-8772-DC6D07AACDCE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3749,7 +3764,7 @@
         <v>2332</v>
       </c>
       <c r="I28" s="7">
-        <v>2401571</v>
+        <v>2401570</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>167</v>
@@ -3851,7 +3866,7 @@
         <v>3296</v>
       </c>
       <c r="I30" s="7">
-        <v>3378138</v>
+        <v>3378137</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3904,7 +3919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5190A9-1285-4D54-8B94-F38D7CE162F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583A46ED-F0E9-42DA-A5B9-B15BB85C616E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4022,43 +4037,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>197</v>
+      </c>
+      <c r="D4" s="7">
+        <v>209954</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>200</v>
+      </c>
+      <c r="I4" s="7">
+        <v>225105</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>397</v>
+      </c>
+      <c r="N4" s="7">
+        <v>435059</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,43 +4088,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="D5" s="7">
+        <v>84784</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="I5" s="7">
+        <v>60096</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>139</v>
+      </c>
+      <c r="N5" s="7">
+        <v>144880</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,43 +4139,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="I6" s="7">
+        <v>285201</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>536</v>
+      </c>
+      <c r="N6" s="7">
+        <v>579939</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4198,13 @@
         <v>283820</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>320</v>
@@ -4180,10 +4213,10 @@
         <v>353143</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>131</v>
@@ -4195,13 +4228,13 @@
         <v>636963</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4249,13 @@
         <v>221707</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="H8" s="7">
         <v>160</v>
@@ -4231,13 +4264,13 @@
         <v>170622</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>141</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>371</v>
@@ -4246,13 +4279,13 @@
         <v>392329</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4353,13 @@
         <v>258496</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>273</v>
@@ -4335,13 +4368,13 @@
         <v>292980</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>526</v>
@@ -4350,13 +4383,13 @@
         <v>551476</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4404,13 @@
         <v>64522</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -4386,13 +4419,13 @@
         <v>48040</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>109</v>
@@ -4401,13 +4434,13 @@
         <v>112562</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,49 +4502,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>471</v>
+        <v>274</v>
       </c>
       <c r="D13" s="7">
-        <v>503362</v>
+        <v>293408</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>516</v>
+        <v>316</v>
       </c>
       <c r="I13" s="7">
-        <v>557875</v>
+        <v>332770</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>987</v>
+        <v>590</v>
       </c>
       <c r="N13" s="7">
-        <v>1061237</v>
+        <v>626178</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,49 +4553,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="D14" s="7">
-        <v>165358</v>
+        <v>80574</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="I14" s="7">
-        <v>116277</v>
+        <v>56181</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="N14" s="7">
-        <v>281635</v>
+        <v>136755</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,10 +4604,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4586,10 +4619,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>625</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>674152</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4601,10 +4634,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1251</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1342872</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4630,13 +4663,13 @@
         <v>136185</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>157</v>
@@ -4645,13 +4678,13 @@
         <v>160717</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>282</v>
@@ -4660,13 +4693,13 @@
         <v>296902</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4714,13 @@
         <v>76433</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -4696,13 +4729,13 @@
         <v>58874</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -4711,13 +4744,13 @@
         <v>135307</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4818,13 @@
         <v>198498</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>223</v>
@@ -4800,13 +4833,13 @@
         <v>231718</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>410</v>
@@ -4815,13 +4848,13 @@
         <v>430216</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4869,13 @@
         <v>75483</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -4851,13 +4884,13 @@
         <v>46378</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>119</v>
@@ -4866,13 +4899,13 @@
         <v>121861</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4973,13 @@
         <v>487214</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>519</v>
@@ -4955,13 +4988,13 @@
         <v>567386</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>970</v>
@@ -4970,13 +5003,13 @@
         <v>1054600</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,13 +5024,13 @@
         <v>170424</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="H23" s="7">
         <v>114</v>
@@ -5006,13 +5039,13 @@
         <v>121764</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>276</v>
@@ -5021,13 +5054,13 @@
         <v>292188</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5128,13 @@
         <v>565716</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>606</v>
@@ -5110,13 +5143,13 @@
         <v>659219</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>1120</v>
@@ -5125,13 +5158,13 @@
         <v>1224935</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5179,13 @@
         <v>212353</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="H26" s="7">
         <v>150</v>
@@ -5161,13 +5194,13 @@
         <v>163484</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="M26" s="7">
         <v>352</v>
@@ -5176,13 +5209,13 @@
         <v>375837</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,16 +5280,16 @@
         <v>2262</v>
       </c>
       <c r="D28" s="7">
-        <v>2433292</v>
+        <v>2433291</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>149</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="H28" s="7">
         <v>2614</v>
@@ -5265,28 +5298,28 @@
         <v>2823037</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="M28" s="7">
         <v>4876</v>
       </c>
       <c r="N28" s="7">
-        <v>5256328</v>
+        <v>5256329</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,10 +5337,10 @@
         <v>158</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>677</v>
@@ -5316,13 +5349,13 @@
         <v>725440</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>1617</v>
@@ -5331,13 +5364,13 @@
         <v>1711720</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,7 +5382,7 @@
         <v>3202</v>
       </c>
       <c r="D30" s="7">
-        <v>3419572</v>
+        <v>3419571</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -5379,7 +5412,7 @@
         <v>6493</v>
       </c>
       <c r="N30" s="7">
-        <v>6968048</v>
+        <v>6968049</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5417,7 +5450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37352755-7610-488A-98E3-3FBE8E433260}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE8368E-41DF-42FA-9197-86C90BF09711}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5434,7 +5467,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5541,13 +5574,13 @@
         <v>235668</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>234</v>
@@ -5556,13 +5589,13 @@
         <v>245125</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>450</v>
@@ -5571,13 +5604,13 @@
         <v>480793</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,13 +5625,13 @@
         <v>57151</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>41</v>
@@ -5607,13 +5640,13 @@
         <v>41592</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>90</v>
@@ -5622,13 +5655,13 @@
         <v>98742</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,10 +5729,10 @@
         <v>340493</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>51</v>
@@ -5711,13 +5744,13 @@
         <v>409182</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="M7" s="7">
         <v>694</v>
@@ -5726,13 +5759,13 @@
         <v>749675</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5780,13 @@
         <v>157123</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="H8" s="7">
         <v>107</v>
@@ -5762,13 +5795,13 @@
         <v>111466</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="M8" s="7">
         <v>259</v>
@@ -5777,13 +5810,13 @@
         <v>268589</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5884,13 @@
         <v>231713</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>258</v>
@@ -5866,13 +5899,13 @@
         <v>262478</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>503</v>
@@ -5881,13 +5914,13 @@
         <v>494190</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,13 +5935,13 @@
         <v>85930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="H11" s="7">
         <v>74</v>
@@ -5917,13 +5950,13 @@
         <v>73831</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="M11" s="7">
         <v>163</v>
@@ -5932,13 +5965,13 @@
         <v>159762</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,13 +6039,13 @@
         <v>296731</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>310</v>
@@ -6021,13 +6054,13 @@
         <v>335773</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>595</v>
@@ -6036,13 +6069,13 @@
         <v>632504</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,13 +6090,13 @@
         <v>73233</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -6072,13 +6105,13 @@
         <v>50552</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M14" s="7">
         <v>116</v>
@@ -6087,13 +6120,13 @@
         <v>123785</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6161,13 +6194,13 @@
         <v>190309</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>199</v>
@@ -6176,13 +6209,13 @@
         <v>195681</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>391</v>
@@ -6191,13 +6224,13 @@
         <v>385990</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,13 +6245,13 @@
         <v>20912</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -6227,13 +6260,13 @@
         <v>22906</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -6242,13 +6275,13 @@
         <v>43818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,13 +6349,13 @@
         <v>141235</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>157</v>
@@ -6331,28 +6364,28 @@
         <v>163142</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>296</v>
       </c>
       <c r="N19" s="7">
-        <v>304377</v>
+        <v>304378</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,13 +6400,13 @@
         <v>120877</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>105</v>
@@ -6382,13 +6415,13 @@
         <v>108880</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>224</v>
@@ -6397,13 +6430,13 @@
         <v>229757</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,7 +6478,7 @@
         <v>520</v>
       </c>
       <c r="N21" s="7">
-        <v>534134</v>
+        <v>534135</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6471,13 +6504,13 @@
         <v>413842</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="H22" s="7">
         <v>457</v>
@@ -6486,13 +6519,13 @@
         <v>492273</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="M22" s="7">
         <v>826</v>
@@ -6501,13 +6534,13 @@
         <v>906115</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,13 +6555,13 @@
         <v>237530</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="H23" s="7">
         <v>182</v>
@@ -6537,13 +6570,13 @@
         <v>191603</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="M23" s="7">
         <v>389</v>
@@ -6552,13 +6585,13 @@
         <v>429133</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,13 +6659,13 @@
         <v>591618</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="H25" s="7">
         <v>567</v>
@@ -6641,13 +6674,13 @@
         <v>627141</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="M25" s="7">
         <v>1136</v>
@@ -6656,13 +6689,13 @@
         <v>1218760</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,13 +6710,13 @@
         <v>182807</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="H26" s="7">
         <v>185</v>
@@ -6692,13 +6725,13 @@
         <v>196160</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="M26" s="7">
         <v>362</v>
@@ -6707,13 +6740,13 @@
         <v>378966</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,13 +6814,13 @@
         <v>2441609</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="H28" s="7">
         <v>2557</v>
@@ -6796,13 +6829,13 @@
         <v>2730794</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="M28" s="7">
         <v>4891</v>
@@ -6811,13 +6844,13 @@
         <v>5172404</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,16 +6862,16 @@
         <v>882</v>
       </c>
       <c r="D29" s="7">
-        <v>935563</v>
+        <v>935562</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="H29" s="7">
         <v>765</v>
@@ -6847,13 +6880,13 @@
         <v>796990</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="M29" s="7">
         <v>1647</v>
@@ -6862,13 +6895,13 @@
         <v>1732552</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,7 +6913,7 @@
         <v>3216</v>
       </c>
       <c r="D30" s="7">
-        <v>3377172</v>
+        <v>3377171</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6948,7 +6981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDB06F8-B96B-455C-87A1-FE803AEE6009}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16D3E2E-35DE-4BFA-BF54-4465920C0999}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6965,7 +6998,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7069,46 +7102,46 @@
         <v>311</v>
       </c>
       <c r="D4" s="7">
-        <v>243505</v>
+        <v>291388</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="H4" s="7">
         <v>522</v>
       </c>
       <c r="I4" s="7">
-        <v>260958</v>
+        <v>276740</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="M4" s="7">
         <v>833</v>
       </c>
       <c r="N4" s="7">
-        <v>504462</v>
+        <v>568127</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7120,46 +7153,46 @@
         <v>20</v>
       </c>
       <c r="D5" s="7">
-        <v>16793</v>
+        <v>20055</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>10445</v>
+        <v>12895</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
       </c>
       <c r="N5" s="7">
-        <v>27238</v>
+        <v>32950</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7171,7 +7204,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7186,7 +7219,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7201,7 +7234,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7224,46 +7257,46 @@
         <v>354</v>
       </c>
       <c r="D7" s="7">
-        <v>481309</v>
+        <v>481243</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="H7" s="7">
         <v>668</v>
       </c>
       <c r="I7" s="7">
-        <v>516944</v>
+        <v>479967</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="M7" s="7">
         <v>1022</v>
       </c>
       <c r="N7" s="7">
-        <v>998254</v>
+        <v>961209</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7275,46 +7308,46 @@
         <v>28</v>
       </c>
       <c r="D8" s="7">
-        <v>37988</v>
+        <v>37147</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="H8" s="7">
         <v>49</v>
       </c>
       <c r="I8" s="7">
-        <v>37622</v>
+        <v>35002</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
       </c>
       <c r="N8" s="7">
-        <v>75610</v>
+        <v>72150</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7326,7 +7359,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7341,7 +7374,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7356,7 +7389,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7379,46 +7412,46 @@
         <v>333</v>
       </c>
       <c r="D10" s="7">
-        <v>294439</v>
+        <v>288586</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="H10" s="7">
         <v>505</v>
       </c>
       <c r="I10" s="7">
-        <v>350491</v>
+        <v>328045</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>511</v>
+        <v>537</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="M10" s="7">
         <v>838</v>
       </c>
       <c r="N10" s="7">
-        <v>644930</v>
+        <v>616631</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,46 +7463,46 @@
         <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>27801</v>
+        <v>27464</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
       </c>
       <c r="I11" s="7">
-        <v>20583</v>
+        <v>19050</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
       </c>
       <c r="N11" s="7">
-        <v>48384</v>
+        <v>46514</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,7 +7514,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7496,7 +7529,7 @@
         <v>532</v>
       </c>
       <c r="I12" s="7">
-        <v>371074</v>
+        <v>347095</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7511,7 +7544,7 @@
         <v>892</v>
       </c>
       <c r="N12" s="7">
-        <v>693314</v>
+        <v>663145</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7534,46 +7567,46 @@
         <v>286</v>
       </c>
       <c r="D13" s="7">
-        <v>315653</v>
+        <v>306122</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="H13" s="7">
         <v>588</v>
       </c>
       <c r="I13" s="7">
-        <v>420426</v>
+        <v>468218</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="M13" s="7">
         <v>874</v>
       </c>
       <c r="N13" s="7">
-        <v>736079</v>
+        <v>774340</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,46 +7618,46 @@
         <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>5803</v>
+        <v>5693</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
       </c>
       <c r="I14" s="7">
-        <v>8130</v>
+        <v>7500</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
       </c>
       <c r="N14" s="7">
-        <v>13933</v>
+        <v>13193</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,7 +7669,7 @@
         <v>291</v>
       </c>
       <c r="D15" s="7">
-        <v>321456</v>
+        <v>311815</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7651,7 +7684,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7666,7 +7699,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750012</v>
+        <v>787533</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7689,46 +7722,46 @@
         <v>278</v>
       </c>
       <c r="D16" s="7">
-        <v>196174</v>
+        <v>178227</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="H16" s="7">
         <v>487</v>
       </c>
       <c r="I16" s="7">
-        <v>229414</v>
+        <v>206420</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="M16" s="7">
         <v>765</v>
       </c>
       <c r="N16" s="7">
-        <v>425587</v>
+        <v>384647</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7740,46 +7773,46 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>574</v>
+        <v>515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>1753</v>
+        <v>1548</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>2327</v>
+        <v>2063</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,7 +7824,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7806,7 +7839,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>231167</v>
+        <v>207968</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7821,7 +7854,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427914</v>
+        <v>386710</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7844,13 +7877,13 @@
         <v>360</v>
       </c>
       <c r="D19" s="7">
-        <v>268447</v>
+        <v>261124</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>556</v>
@@ -7859,31 +7892,31 @@
         <v>452</v>
       </c>
       <c r="I19" s="7">
-        <v>269601</v>
+        <v>251492</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="M19" s="7">
         <v>812</v>
       </c>
       <c r="N19" s="7">
-        <v>538049</v>
+        <v>512616</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,46 +7928,46 @@
         <v>11</v>
       </c>
       <c r="D20" s="7">
-        <v>8776</v>
+        <v>8512</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
       </c>
       <c r="I20" s="7">
-        <v>6021</v>
+        <v>5564</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
       </c>
       <c r="N20" s="7">
-        <v>14796</v>
+        <v>14076</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7946,7 +7979,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7961,7 +7994,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7976,7 +8009,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7999,46 +8032,46 @@
         <v>531</v>
       </c>
       <c r="D22" s="7">
-        <v>549524</v>
+        <v>545559</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>590</v>
+        <v>218</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="H22" s="7">
         <v>893</v>
       </c>
       <c r="I22" s="7">
-        <v>746165</v>
+        <v>795402</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="M22" s="7">
         <v>1424</v>
       </c>
       <c r="N22" s="7">
-        <v>1295689</v>
+        <v>1340961</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,46 +8083,46 @@
         <v>65</v>
       </c>
       <c r="D23" s="7">
-        <v>76134</v>
+        <v>76719</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>600</v>
+        <v>226</v>
       </c>
       <c r="H23" s="7">
         <v>67</v>
       </c>
       <c r="I23" s="7">
-        <v>58038</v>
+        <v>53863</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>602</v>
+        <v>564</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="M23" s="7">
         <v>132</v>
       </c>
       <c r="N23" s="7">
-        <v>134172</v>
+        <v>130582</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,7 +8134,7 @@
         <v>596</v>
       </c>
       <c r="D24" s="7">
-        <v>625658</v>
+        <v>622278</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8116,7 +8149,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8131,7 +8164,7 @@
         <v>1556</v>
       </c>
       <c r="N24" s="7">
-        <v>1429861</v>
+        <v>1471543</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8154,46 +8187,46 @@
         <v>746</v>
       </c>
       <c r="D25" s="7">
-        <v>839189</v>
+        <v>911649</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="H25" s="7">
         <v>1042</v>
       </c>
       <c r="I25" s="7">
-        <v>848978</v>
+        <v>701933</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="M25" s="7">
         <v>1788</v>
       </c>
       <c r="N25" s="7">
-        <v>1688167</v>
+        <v>1613582</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8205,46 +8238,46 @@
         <v>15</v>
       </c>
       <c r="D26" s="7">
-        <v>19425</v>
+        <v>16363</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
       </c>
       <c r="I26" s="7">
-        <v>17502</v>
+        <v>14239</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="M26" s="7">
         <v>33</v>
       </c>
       <c r="N26" s="7">
-        <v>36927</v>
+        <v>30602</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8256,7 +8289,7 @@
         <v>761</v>
       </c>
       <c r="D27" s="7">
-        <v>858614</v>
+        <v>928012</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8271,7 +8304,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>866480</v>
+        <v>716172</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8286,7 +8319,7 @@
         <v>1821</v>
       </c>
       <c r="N27" s="7">
-        <v>1725094</v>
+        <v>1644184</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8309,46 +8342,46 @@
         <v>3199</v>
       </c>
       <c r="D28" s="7">
-        <v>3188241</v>
+        <v>3263898</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="H28" s="7">
         <v>5157</v>
       </c>
       <c r="I28" s="7">
-        <v>3642976</v>
+        <v>3508214</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="M28" s="7">
         <v>8356</v>
       </c>
       <c r="N28" s="7">
-        <v>6831217</v>
+        <v>6772113</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>511</v>
+        <v>637</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8360,46 +8393,46 @@
         <v>172</v>
       </c>
       <c r="D29" s="7">
-        <v>193293</v>
+        <v>192468</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="H29" s="7">
         <v>199</v>
       </c>
       <c r="I29" s="7">
-        <v>160094</v>
+        <v>149662</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
       </c>
       <c r="N29" s="7">
-        <v>353387</v>
+        <v>342130</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>519</v>
+        <v>645</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8411,7 +8444,7 @@
         <v>3371</v>
       </c>
       <c r="D30" s="7">
-        <v>3381534</v>
+        <v>3456366</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8426,7 +8459,7 @@
         <v>5356</v>
       </c>
       <c r="I30" s="7">
-        <v>3803070</v>
+        <v>3657876</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8441,7 +8474,7 @@
         <v>8727</v>
       </c>
       <c r="N30" s="7">
-        <v>7184604</v>
+        <v>7114243</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
